--- a/DICCIONARIO-DE-DATOS.xlsx
+++ b/DICCIONARIO-DE-DATOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALUMNO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALUMNO\Desktop\mio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -200,9 +200,6 @@
     <t>texto</t>
   </si>
   <si>
-    <t>titulo y edición</t>
-  </si>
-  <si>
     <t>SISTEMAS OPERATIVOS, SEGUNDA EDICIÓN</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>Si</t>
   </si>
   <si>
-    <t>No mas de 13 y solo un numero</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Solo carreras de la institucion</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t>Minimo una letra y un numero</t>
   </si>
   <si>
-    <t>libros_en_posecion</t>
-  </si>
-  <si>
     <t>valido:palindromo13 invalido:12345</t>
   </si>
   <si>
@@ -285,6 +276,15 @@
   </si>
   <si>
     <t>Libro1, libro2, libro3</t>
+  </si>
+  <si>
+    <t>libros_en_posesion</t>
+  </si>
+  <si>
+    <t>titulo_y _edición</t>
+  </si>
+  <si>
+    <t>No mas de 19 y solo un numero</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1181,7 @@
         <v>70</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -1199,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -1232,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
@@ -1304,17 +1304,17 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>11</v>
@@ -1323,13 +1323,13 @@
         <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>10</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>10</v>
@@ -1502,7 +1502,7 @@
     <row r="26" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>22</v>
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
@@ -1575,7 +1575,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>10</v>
@@ -1587,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>10</v>
@@ -1666,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>10</v>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>41</v>
@@ -1961,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>10</v>
@@ -2073,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>11</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51" s="3"/>
     </row>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L52" s="3"/>
     </row>
@@ -2169,7 +2169,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>41</v>
@@ -2200,7 +2200,7 @@
     <row r="56" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>42</v>
@@ -2209,7 +2209,7 @@
         <v>50</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>10</v>
@@ -2221,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>10</v>
@@ -2233,7 +2233,7 @@
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>42</v>
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
@@ -2264,7 +2264,7 @@
     <row r="58" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>42</v>
@@ -2273,7 +2273,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>10</v>
@@ -2285,13 +2285,13 @@
         <v>10</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">

--- a/DICCIONARIO-DE-DATOS.xlsx
+++ b/DICCIONARIO-DE-DATOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALUMNO\Desktop\mio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALUMNO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,18 +158,6 @@
     <t>Esta entidad almacena los datos de  los prestamos.</t>
   </si>
   <si>
-    <t>fecha_prestamo</t>
-  </si>
-  <si>
-    <t>fecha_entrega</t>
-  </si>
-  <si>
-    <t>cantidad_ejemplares_solicitados</t>
-  </si>
-  <si>
-    <t>descripción_prestamo</t>
-  </si>
-  <si>
     <t>PRÉSTAMO</t>
   </si>
   <si>
@@ -203,18 +191,12 @@
     <t>SISTEMAS OPERATIVOS, SEGUNDA EDICIÓN</t>
   </si>
   <si>
-    <t>idprestamo</t>
-  </si>
-  <si>
     <t>USUARIOS</t>
   </si>
   <si>
     <t>Esta entidad almacena los datos de  los usuarios.</t>
   </si>
   <si>
-    <t>idusuario</t>
-  </si>
-  <si>
     <t>No abreviaturas</t>
   </si>
   <si>
@@ -248,21 +230,12 @@
     <t>Solo numeros positivos</t>
   </si>
   <si>
-    <t>correo</t>
-  </si>
-  <si>
     <t>correo@itsmante.edu.mx</t>
   </si>
   <si>
     <t>Solo correo institucional</t>
   </si>
   <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>contraseña</t>
-  </si>
-  <si>
     <t>xX_PepitoPro_Xx</t>
   </si>
   <si>
@@ -285,6 +258,33 @@
   </si>
   <si>
     <t>No mas de 19 y solo un numero</t>
+  </si>
+  <si>
+    <t>Ejemplares_sol</t>
+  </si>
+  <si>
+    <t>IdPrestamo</t>
+  </si>
+  <si>
+    <t>Fecha_Prestamo</t>
+  </si>
+  <si>
+    <t>Fecha_Entrega</t>
+  </si>
+  <si>
+    <t>Desc_Prestamo</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="7" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1131,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>70</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -1193,13 +1193,13 @@
         <v>10</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -1232,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -1259,13 +1259,13 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
@@ -1292,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>10</v>
@@ -1304,17 +1304,17 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>11</v>
@@ -1323,13 +1323,13 @@
         <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="24" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
@@ -1461,7 +1461,7 @@
         <v>17</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>10</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>10</v>
@@ -1502,7 +1502,7 @@
     <row r="26" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>22</v>
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
@@ -1554,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
@@ -1575,7 +1575,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>10</v>
@@ -1587,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>10</v>
@@ -1618,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1633,7 +1633,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1666,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>10</v>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>10</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L40" s="3"/>
     </row>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="43" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>4</v>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="21" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>41</v>
@@ -1961,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>10</v>
@@ -1985,7 +1985,7 @@
     <row r="45" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>36</v>
@@ -2018,7 +2018,7 @@
     <row r="46" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>36</v>
@@ -2048,10 +2048,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="14" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>41</v>
@@ -2082,7 +2082,7 @@
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
       <c r="C48" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>22</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L51" s="3"/>
     </row>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L52" s="3"/>
     </row>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="54" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>4</v>
@@ -2161,7 +2161,7 @@
         <v>17</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="21" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>41</v>
@@ -2200,7 +2200,7 @@
     <row r="56" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>42</v>
@@ -2209,7 +2209,7 @@
         <v>50</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>10</v>
@@ -2221,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>10</v>
@@ -2233,7 +2233,7 @@
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>42</v>
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
@@ -2264,7 +2264,7 @@
     <row r="58" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>42</v>
@@ -2273,7 +2273,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>10</v>
@@ -2285,13 +2285,13 @@
         <v>10</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">

--- a/DICCIONARIO-DE-DATOS.xlsx
+++ b/DICCIONARIO-DE-DATOS.xlsx
@@ -281,10 +281,10 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
     <t>Contraseña</t>
+  </si>
+  <si>
+    <t>NombreUsuario</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2233,7 @@
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>42</v>
@@ -2264,7 +2264,7 @@
     <row r="58" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>42</v>

--- a/DICCIONARIO-DE-DATOS.xlsx
+++ b/DICCIONARIO-DE-DATOS.xlsx
@@ -1066,7 +1066,7 @@
   <dimension ref="B4:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2030,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>10</v>
